--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2880538.677268883</v>
+        <v>2878143.021263703</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>12.49844787248098</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>75.08156458831729</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>32.84094506779746</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.34660147668437</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.4869461577285</v>
+        <v>11.99739795242837</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>49.82727138455655</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.13016428816636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>307.3508167500636</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>98.8650934615883</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>126.1605539371079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>40.8479479962216</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187848</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893532</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176103</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722635</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997927</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605717463</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>20.22544352992953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.769375845647</v>
+        <v>836.329571550902</v>
       </c>
       <c r="C2" t="n">
-        <v>1298.769375845647</v>
+        <v>836.329571550902</v>
       </c>
       <c r="D2" t="n">
-        <v>1298.769375845647</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>471.118372194948</v>
       </c>
       <c r="G2" t="n">
         <v>458.7065149272266</v>
@@ -4328,28 +4328,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>821.3880832278138</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1462.411292847708</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4370,10 +4370,10 @@
         <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.769375845647</v>
+        <v>1222.929411615024</v>
       </c>
       <c r="Y2" t="n">
-        <v>1298.769375845647</v>
+        <v>1222.929411615024</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4413,19 +4413,19 @@
         <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>831.5342839343288</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005978</v>
+        <v>1472.557493554223</v>
       </c>
       <c r="N3" t="n">
-        <v>1449.364816439311</v>
+        <v>2113.580703174116</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>901.5642936328658</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>732.6281107049589</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>582.5114712926231</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>434.59837771023</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>287.7084302123196</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>305.7651062520038</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.212758463106</v>
+        <v>305.7651062520038</v>
       </c>
       <c r="Y4" t="n">
-        <v>1083.212758463106</v>
+        <v>84.97252710847371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1652.581995469549</v>
+        <v>809.7335931689811</v>
       </c>
       <c r="C5" t="n">
-        <v>1283.619478529137</v>
+        <v>440.7710762285694</v>
       </c>
       <c r="D5" t="n">
-        <v>925.3537799223866</v>
+        <v>82.50537762181887</v>
       </c>
       <c r="E5" t="n">
-        <v>539.5655273241423</v>
+        <v>82.50537762181887</v>
       </c>
       <c r="F5" t="n">
-        <v>128.5796225345347</v>
+        <v>75.55987687261539</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9381847750708</v>
+        <v>63.91843911315141</v>
       </c>
       <c r="H5" t="n">
-        <v>116.9381847750708</v>
+        <v>63.91843911315141</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140987</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083234</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739663</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>1652.581995469549</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="X5" t="n">
-        <v>1652.581995469549</v>
+        <v>1199.872925144793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1652.581995469549</v>
+        <v>809.7335931689811</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128337</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291485</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1480.804272147217</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O6" t="n">
-        <v>1815.732952862748</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.487821681304</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.6557187433658</v>
+        <v>207.6765531991406</v>
       </c>
       <c r="C7" t="n">
-        <v>496.7195358154589</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D7" t="n">
-        <v>346.6028964031232</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281973</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281973</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281973</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.04909569586</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.04909569586</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.364607489973</v>
+        <v>906.7317389643582</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.364607489973</v>
+        <v>617.3145689273977</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3750565919554</v>
+        <v>389.3250180293803</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.3041835736055</v>
+        <v>389.3250180293803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142.55613329041</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="C8" t="n">
-        <v>1142.55613329041</v>
+        <v>1183.755747759855</v>
       </c>
       <c r="D8" t="n">
-        <v>1142.55613329041</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.55613329041</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5702285008026</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
         <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2490.129035371705</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2490.129035371705</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2236.549807313952</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797416</v>
+        <v>1905.486919970381</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527302</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266222</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.55613329041</v>
+        <v>1552.718264700267</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344692</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160212</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875743</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1605.723116622341</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1351.038628416454</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1061.621458379494</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="X10" t="n">
-        <v>833.6319074814764</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.6319074814764</v>
+        <v>360.8832231198351</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239594</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718729</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,43 +5984,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6716,19 +6716,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961529</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861993</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357061</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731944</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>803.2707707770319</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>653.1541313646961</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>505.241037782303</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,22 +7640,22 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659682</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21.35444800546651</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8000,7 +8000,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>301.5907184588518</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>142.3850817401787</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325414</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.04114869769646</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>119.3759750973111</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144487</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-8.360466259697908e-14</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.030694428354666e-13</v>
+        <v>-2.945240385875868e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431595</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194225</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367983</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172138</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752100.1003983666</v>
+        <v>752100.1003983667</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983666</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752100.1003983667</v>
+        <v>752100.1003983665</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380341</v>
@@ -26323,34 +26323,34 @@
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442552</v>
@@ -26366,16 +26366,16 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.179877173367302e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.877520041191019e-10</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695133</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695025</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695075</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695075</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695033</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.48053169497</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695043</v>
+        <v>6287.480531694993</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511454.389449516</v>
+        <v>-511454.3894495156</v>
       </c>
       <c r="C6" t="n">
-        <v>282047.2562613839</v>
+        <v>282047.2562613842</v>
       </c>
       <c r="D6" t="n">
-        <v>454811.6160512766</v>
+        <v>454811.6160512765</v>
       </c>
       <c r="E6" t="n">
-        <v>57597.06664290222</v>
+        <v>57562.32871746669</v>
       </c>
       <c r="F6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632169</v>
       </c>
       <c r="G6" t="n">
-        <v>558485.9343886526</v>
+        <v>558451.1964632173</v>
       </c>
       <c r="H6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632175</v>
       </c>
       <c r="I6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632175</v>
       </c>
       <c r="J6" t="n">
-        <v>389071.9175626045</v>
+        <v>389037.1796371693</v>
       </c>
       <c r="K6" t="n">
-        <v>558485.9343886524</v>
+        <v>558451.1964632174</v>
       </c>
       <c r="L6" t="n">
-        <v>558485.9343886528</v>
+        <v>558451.1964632168</v>
       </c>
       <c r="M6" t="n">
-        <v>427601.4774844177</v>
+        <v>427566.7395589818</v>
       </c>
       <c r="N6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632177</v>
       </c>
       <c r="O6" t="n">
-        <v>558485.9343886527</v>
+        <v>558451.1964632171</v>
       </c>
       <c r="P6" t="n">
-        <v>558485.9343886529</v>
+        <v>558451.1964632174</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918288</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>369.4319221997808</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>294.6495360901517</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>146.9910351141398</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>83.29195320612295</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -27585,25 +27585,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3486192899512019</v>
+        <v>52.83816749525135</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>117.4195497140713</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.4544890639284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>104.1742066318058</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>24.07031531286474</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>40.13587291362164</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>245.378651223484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-4.622602397465861e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.384761130483723e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31285,25 +31285,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31312,7 +31312,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31364,22 +31364,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31473,10 +31473,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181111</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630667</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.075424498137</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34708,10 +34708,10 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>299.24961903237</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938092</v>
@@ -34720,7 +34720,7 @@
         <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>513.2986712394892</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6022047214503</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>501.0609547350981</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.0708349274587</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35109,10 +35109,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>419.6910752148007</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275991</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312258</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462702</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831926</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.395920534173043</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
